--- a/src/main/text/paragraphs/Параграфы.xlsx
+++ b/src/main/text/paragraphs/Параграфы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="105" windowWidth="14235" windowHeight="5880"/>
+    <workbookView xWindow="10080" yWindow="105" windowWidth="14235" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Параграфы, БДК, Том 10,14" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5527" uniqueCount="2160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5538" uniqueCount="2163">
   <si>
     <t>Состояние «Фокуса Пристального Внимания» моделирует «геометрию» Пространства-Времени. В одной и той же «многомерной точке» Пространства-Времени потенциально представлено всё множество Стерео-Типов каждой из наших Стерео-Форм. Смещение УФС – нефизическое явление. Кратко об эффекте «расширения» Вселенной</t>
   </si>
@@ -7696,6 +7696,15 @@
   </si>
   <si>
     <t>3.1226</t>
+  </si>
+  <si>
+    <t>Том 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сложность подбираемых Представлений, которые являются все теми же словами, например, Представления о мерности. Воспринимайте окружающую действительность как стартовый капитал для обретения возможностей. Главное свойство окружающей материальности - всевозможность проявления. </t>
+  </si>
+  <si>
+    <t>Ииссиидиологические Представления помогут общаться с другими цивилизациями, для этого вводятся Звуковые Космические Коды. Почему все изложение дается на русском языке.</t>
   </si>
 </sst>
 </file>
@@ -8137,8 +8146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L698"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A671" workbookViewId="0">
-      <selection activeCell="K682" sqref="K682"/>
+    <sheetView tabSelected="1" topLeftCell="A680" workbookViewId="0">
+      <selection activeCell="K694" sqref="K694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -37211,42 +37220,75 @@
       </c>
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A693" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B693" s="11" t="s">
+        <v>2160</v>
+      </c>
       <c r="C693" s="4" t="s">
-        <v>1743</v>
+        <v>1333</v>
       </c>
       <c r="D693" s="7" t="str">
         <f t="shared" ref="D693:D698" si="49">A693&amp;" / "&amp;C693</f>
-        <v xml:space="preserve"> / Раздел Х</v>
+        <v>Основы / Раздел I</v>
+      </c>
+      <c r="K693" s="4" t="s">
+        <v>2161</v>
       </c>
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A694" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B694" s="11" t="s">
+        <v>2160</v>
+      </c>
       <c r="C694" s="4" t="s">
-        <v>1743</v>
+        <v>1333</v>
       </c>
       <c r="D694" s="7" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve"> / Раздел Х</v>
+        <v>Основы / Раздел I</v>
+      </c>
+      <c r="K694" s="4" t="s">
+        <v>2162</v>
       </c>
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A695" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B695" s="11" t="s">
+        <v>2160</v>
+      </c>
       <c r="C695" s="4" t="s">
-        <v>1743</v>
+        <v>1333</v>
       </c>
       <c r="D695" s="7" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve"> / Раздел Х</v>
+        <v>Основы / Раздел I</v>
       </c>
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A696" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B696" s="11" t="s">
+        <v>2160</v>
+      </c>
       <c r="C696" s="4" t="s">
-        <v>1743</v>
+        <v>1333</v>
       </c>
       <c r="D696" s="7" t="str">
         <f t="shared" si="49"/>
-        <v xml:space="preserve"> / Раздел Х</v>
+        <v>Основы / Раздел I</v>
       </c>
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B697" s="11" t="s">
+        <v>2160</v>
+      </c>
       <c r="D697" s="7" t="str">
         <f t="shared" si="49"/>
         <v xml:space="preserve"> / </v>
